--- a/src/main/resources/xml/TableModel.xlsx
+++ b/src/main/resources/xml/TableModel.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB12B150-2E22-4958-8C41-9209CBDA9C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
+    <sheet name="game" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,9 +174,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,11 +419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,4 +506,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837BBF17-EF13-4AA1-B375-6B67E43A336A}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>